--- a/data-raw/MaterialProperties.xlsx
+++ b/data-raw/MaterialProperties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/averri/Git/packages/gmdp/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2981DC-A5AD-F84C-A582-B8EE5C1243C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEE8179-458D-0C41-91B3-BE4A1760BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23520" windowHeight="14740" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23520" windowHeight="14740" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chat GPT" sheetId="7" r:id="rId1"/>
@@ -18,11 +18,23 @@
     <sheet name="RelativeDensityRanges" sheetId="2" r:id="rId3"/>
     <sheet name="USCS" sheetId="3" r:id="rId4"/>
     <sheet name="ParticleSize" sheetId="4" r:id="rId5"/>
-    <sheet name="UnitWeightRanges" sheetId="5" r:id="rId6"/>
-    <sheet name="ShearModelParameters" sheetId="6" r:id="rId7"/>
+    <sheet name="ParticleSizeUSCS" sheetId="8" r:id="rId6"/>
+    <sheet name="UnitWeightRanges" sheetId="5" r:id="rId7"/>
+    <sheet name="ShearModelParameters" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -31,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="134">
   <si>
     <t>USCS</t>
   </si>
@@ -378,166 +390,40 @@
     <t>Nishio et al.(1985)</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Varies, primarily organic material</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Varies, fine with organic content</t>
   </si>
   <si>
-    <t>1.70</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>&lt; 0.002 mm</t>
   </si>
   <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>0.002 mm to 0.075 mm</t>
   </si>
   <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
     <t>Organic silts, organic silt-clays of low plasticity</t>
   </si>
   <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
     <t>Inorganic clays of low to medium plasticity</t>
   </si>
   <si>
-    <t>0.65</t>
-  </si>
-  <si>
     <t>Inorganic silts and very fine sands, silty or clayey fine sands, slight plasticity</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>0.075 mm to 4.75 mm (with fines)</t>
   </si>
   <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>0.075 mm to 4.75 mm</t>
   </si>
   <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>&gt; 4.75 mm (with fines)</t>
   </si>
   <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>&gt; 4.75 mm</t>
   </si>
   <si>
-    <t>0.25</t>
-  </si>
-  <si>
     <t>Poorly graded gravels, gravel-sand mixtures, little or no fines</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>0.20</t>
   </si>
   <si>
     <t>Well-graded gravels, gravel-sand mixtures, little or no fines</t>
@@ -566,7 +452,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -647,7 +533,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1003,10 +889,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1014,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1022,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1030,7 +916,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1038,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1046,7 +932,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1054,7 +940,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1062,7 +948,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1070,7 +956,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1078,7 +964,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1086,7 +972,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1094,7 +980,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1102,7 +988,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1110,7 +996,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1118,7 +1004,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1126,7 +1012,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1025,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1181,22 +1067,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>136</v>
+      <c r="D2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.85</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -1207,22 +1093,22 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>136</v>
+      <c r="D3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.85</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -1238,17 +1124,17 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>157</v>
+      <c r="D4" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -1264,17 +1150,17 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>162</v>
+      <c r="D5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.05</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -1290,17 +1176,17 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>157</v>
+      <c r="D6" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -1316,17 +1202,17 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>157</v>
+      <c r="D7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -1342,17 +1228,17 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>145</v>
+      <c r="D8" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -1368,17 +1254,17 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>152</v>
+      <c r="D9" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.1499999999999999</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -1394,17 +1280,17 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>120</v>
+      <c r="D10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
@@ -1420,17 +1306,17 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>127</v>
+      <c r="D11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.7</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -1441,22 +1327,22 @@
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>141</v>
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.5</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
@@ -1472,17 +1358,17 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>141</v>
+      <c r="D13" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.5</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
@@ -1493,22 +1379,22 @@
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>128</v>
+      <c r="D14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.3</v>
       </c>
       <c r="H14" t="s">
         <v>10</v>
@@ -1524,17 +1410,17 @@
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>127</v>
+      <c r="D15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.7</v>
       </c>
       <c r="H15" t="s">
         <v>10</v>
@@ -1545,22 +1431,22 @@
         <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>141</v>
+      <c r="D16" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.5</v>
       </c>
       <c r="H16" t="s">
         <v>10</v>
@@ -2172,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2384,134 +2270,6 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2519,11 +2277,154 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7853C8-C605-754A-A5A2-40F0DA41F382}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2540,16 +2441,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -2559,17 +2460,17 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>163</v>
+      <c r="B2" s="5">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -2579,17 +2480,17 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>163</v>
+      <c r="B3" s="5">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5">
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>58</v>
@@ -2599,17 +2500,17 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>160</v>
+      <c r="B4" s="5">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5">
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>58</v>
@@ -2619,17 +2520,17 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>160</v>
+      <c r="B5" s="5">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>58</v>
@@ -2639,17 +2540,17 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>155</v>
+      <c r="B6" s="5">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5">
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -2659,17 +2560,17 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>155</v>
+      <c r="B7" s="5">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5">
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -2679,17 +2580,17 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>131</v>
+      <c r="B8" s="5">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -2699,17 +2600,17 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>131</v>
+      <c r="B9" s="5">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5">
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2719,17 +2620,17 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>115</v>
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
@@ -2739,17 +2640,17 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>131</v>
+      <c r="B11" s="5">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5">
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>58</v>
@@ -2759,17 +2660,17 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>131</v>
+      <c r="B12" s="5">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5">
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
@@ -2779,17 +2680,17 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>138</v>
+      <c r="B13" s="5">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5">
+        <v>21</v>
       </c>
       <c r="F13" t="s">
         <v>58</v>
@@ -2799,17 +2700,17 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>138</v>
+      <c r="B14" s="5">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5">
+        <v>21</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -2819,17 +2720,17 @@
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>124</v>
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>18</v>
       </c>
       <c r="F15" t="s">
         <v>58</v>
@@ -2839,17 +2740,17 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>124</v>
+      <c r="B16" s="5">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5">
+        <v>18</v>
       </c>
       <c r="F16" t="s">
         <v>58</v>
@@ -2861,7 +2762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
